--- a/Stationary_measurements.xlsx
+++ b/Stationary_measurements.xlsx
@@ -40,22 +40,22 @@
     <t>time</t>
   </si>
   <si>
-    <t>19:17</t>
-  </si>
-  <si>
-    <t>21:37</t>
-  </si>
-  <si>
-    <t>23:46</t>
-  </si>
-  <si>
-    <t>26:04</t>
-  </si>
-  <si>
-    <t>29:47</t>
-  </si>
-  <si>
-    <t>32:00</t>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>18:46</t>
+  </si>
+  <si>
+    <t>20:17</t>
+  </si>
+  <si>
+    <t>23:19</t>
+  </si>
+  <si>
+    <t>25:07</t>
+  </si>
+  <si>
+    <t>26:52</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -115,7 +115,155 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,77 +602,77 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>5010</v>
+        <v>8006</v>
       </c>
       <c r="C2" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D2" s="1">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="E2" s="1">
-        <v>798</v>
+        <v>729.66</v>
       </c>
       <c r="F2" s="1">
-        <v>813</v>
+        <v>766.33</v>
       </c>
       <c r="G2" s="1">
-        <v>360</v>
+        <v>350.5</v>
       </c>
       <c r="H2" s="1">
-        <v>12.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>5020</v>
+        <v>8002</v>
       </c>
       <c r="C3" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>673</v>
+        <v>585.82000000000005</v>
       </c>
       <c r="F3" s="1">
-        <v>682</v>
+        <v>640</v>
       </c>
       <c r="G3" s="1">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="H3" s="1">
-        <v>10.5</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>5020</v>
+        <v>8008</v>
       </c>
       <c r="C4" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1">
-        <v>3.6</v>
+        <v>3.18</v>
       </c>
       <c r="E4" s="1">
-        <v>561</v>
+        <v>492.16</v>
       </c>
       <c r="F4" s="1">
-        <v>579</v>
+        <v>535.16</v>
       </c>
       <c r="G4" s="1">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="H4" s="1">
-        <v>8.8000000000000007</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,25 +680,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>5030</v>
+        <v>8000</v>
       </c>
       <c r="C5" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>463</v>
+        <v>399.67</v>
       </c>
       <c r="F5" s="1">
-        <v>484</v>
+        <v>439.66</v>
       </c>
       <c r="G5" s="1">
-        <v>478</v>
+        <v>449.67</v>
       </c>
       <c r="H5" s="1">
-        <v>7.2</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -558,25 +706,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>5020</v>
+        <v>8010</v>
       </c>
       <c r="C6" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="E6" s="1">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="F6" s="1">
+        <v>435</v>
+      </c>
+      <c r="G6" s="1">
         <v>467</v>
       </c>
-      <c r="G6" s="1">
-        <v>532</v>
-      </c>
       <c r="H6" s="1">
-        <v>6</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,38 +732,52 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>5110</v>
+        <v>8050</v>
       </c>
       <c r="C7" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="E7" s="1">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="F7" s="1">
-        <v>499</v>
+        <v>427</v>
       </c>
       <c r="G7" s="1">
-        <v>570</v>
+        <v>474.5</v>
       </c>
       <c r="H7" s="1">
-        <v>5.2</v>
-      </c>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H7">
-    <cfRule type="expression" priority="2">
+  <conditionalFormatting sqref="D2:H7 D8">
+    <cfRule type="expression" priority="6">
+      <formula>LEN(TRIM(D2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7">
-    <cfRule type="expression" priority="1">
-      <formula>LEN(TRIM(A2))=0</formula>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>